--- a/Final Project/result_data2.xlsx
+++ b/Final Project/result_data2.xlsx
@@ -515,31 +515,31 @@
         <v>40</v>
       </c>
       <c r="C3">
-        <v>0.002862469458999371</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>9.997137530541</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>0.003339547702165933</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2377484736267711</v>
+        <v>0.24</v>
       </c>
       <c r="G3">
-        <v>9.541564863331237</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="H3">
-        <v>792.4949120892371</v>
+        <v>792.49</v>
       </c>
       <c r="I3">
-        <v>0.2372713953836046</v>
+        <v>0.24</v>
       </c>
       <c r="J3">
-        <v>-0.1434577964990691</v>
+        <v>-0.14</v>
       </c>
       <c r="K3">
-        <v>9.906186401115464</v>
+        <v>9.91</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,31 +550,31 @@
         <v>200</v>
       </c>
       <c r="C4">
-        <v>0.01411405676983385</v>
+        <v>0.01</v>
       </c>
       <c r="D4">
-        <v>9.985885943230166</v>
+        <v>9.99</v>
       </c>
       <c r="E4">
-        <v>0.01646639956480616</v>
+        <v>0.02</v>
       </c>
       <c r="F4">
-        <v>0.2348452068436924</v>
+        <v>0.23</v>
       </c>
       <c r="G4">
-        <v>47.04685589944619</v>
+        <v>47.05</v>
       </c>
       <c r="H4">
-        <v>782.8173561456414</v>
+        <v>782.8200000000001</v>
       </c>
       <c r="I4">
-        <v>0.2324928640487201</v>
+        <v>0.23</v>
       </c>
       <c r="J4">
-        <v>-0.01770981586923881</v>
+        <v>-0.02</v>
       </c>
       <c r="K4">
-        <v>9.785216951820518</v>
+        <v>9.789999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,31 +585,31 @@
         <v>500</v>
       </c>
       <c r="C5">
-        <v>0.03638101630465408</v>
+        <v>0.04</v>
       </c>
       <c r="D5">
-        <v>9.963618983695346</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="E5">
-        <v>0.04244451902209644</v>
+        <v>0.04</v>
       </c>
       <c r="F5">
-        <v>0.3382517256239226</v>
+        <v>0.34</v>
       </c>
       <c r="G5">
-        <v>121.270054348847</v>
+        <v>121.27</v>
       </c>
       <c r="H5">
-        <v>1691.258628119613</v>
+        <v>1691.26</v>
       </c>
       <c r="I5">
-        <v>0.3321882229064802</v>
+        <v>0.33</v>
       </c>
       <c r="J5">
-        <v>2.902777264615067</v>
+        <v>2.9</v>
       </c>
       <c r="K5">
-        <v>6.765034512478452</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,31 +620,31 @@
         <v>700</v>
       </c>
       <c r="C6">
-        <v>0.05888735148739374</v>
+        <v>0.06</v>
       </c>
       <c r="D6">
-        <v>9.941112648512606</v>
+        <v>9.94</v>
       </c>
       <c r="E6">
-        <v>0.06870191006862604</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F6">
-        <v>0.4168611017683883</v>
+        <v>0.42</v>
       </c>
       <c r="G6">
-        <v>196.2911716246458</v>
+        <v>196.29</v>
       </c>
       <c r="H6">
-        <v>2084.305508841941</v>
+        <v>2084.31</v>
       </c>
       <c r="I6">
-        <v>0.407046543187156</v>
+        <v>0.41</v>
       </c>
       <c r="J6">
-        <v>1.255731421445077</v>
+        <v>1.26</v>
       </c>
       <c r="K6">
-        <v>8.337222035367766</v>
+        <v>8.34</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,31 +655,31 @@
         <v>4300</v>
       </c>
       <c r="C7">
-        <v>0.518363987209669</v>
+        <v>0.52</v>
       </c>
       <c r="D7">
-        <v>9.481636012790331</v>
+        <v>9.48</v>
       </c>
       <c r="E7">
-        <v>0.6047579850779473</v>
+        <v>0.6</v>
       </c>
       <c r="F7">
-        <v>0.4800787249834035</v>
+        <v>0.48</v>
       </c>
       <c r="G7">
-        <v>1727.879957365564</v>
+        <v>1727.88</v>
       </c>
       <c r="H7">
-        <v>2400.393624917017</v>
+        <v>2400.39</v>
       </c>
       <c r="I7">
-        <v>0.3936847271151252</v>
+        <v>0.39</v>
       </c>
       <c r="J7">
-        <v>0.004740773216804328</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>9.60157449966807</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,31 +690,31 @@
         <v>20100</v>
       </c>
       <c r="C8">
-        <v>1.830041532127209</v>
+        <v>1.83</v>
       </c>
       <c r="D8">
-        <v>8.169958467872791</v>
+        <v>8.17</v>
       </c>
       <c r="E8">
-        <v>2.13504845414841</v>
+        <v>2.14</v>
       </c>
       <c r="F8">
-        <v>0.4906081929236003</v>
+        <v>0.49</v>
       </c>
       <c r="G8">
-        <v>6100.13844042403</v>
+        <v>6100.14</v>
       </c>
       <c r="H8">
-        <v>2453.040964618001</v>
+        <v>2453.04</v>
       </c>
       <c r="I8">
-        <v>0.1856012709023988</v>
+        <v>0.19</v>
       </c>
       <c r="J8">
-        <v>0.002234870625594354</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>9.812163858472006</v>
+        <v>9.81</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -725,66 +725,63 @@
         <v>49700</v>
       </c>
       <c r="C9">
-        <v>2.713995540034071</v>
+        <v>2.71</v>
       </c>
       <c r="D9">
-        <v>7.286004459965929</v>
+        <v>7.29</v>
       </c>
       <c r="E9">
-        <v>3.16632813003975</v>
+        <v>3.17</v>
       </c>
       <c r="F9">
-        <v>0.497704107800658</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>9046.65180011357</v>
+        <v>9046.65</v>
       </c>
       <c r="H9">
-        <v>2488.52053900329</v>
+        <v>2488.52</v>
       </c>
       <c r="I9">
-        <v>0.04537151779497928</v>
+        <v>0.05</v>
       </c>
       <c r="J9">
-        <v>0.0005463261918610129</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>9.954082156013159</v>
+        <v>9.949999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10">
-        <v>1000000</v>
-      </c>
       <c r="C10">
-        <v>2.999999998569005</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>7.000000001430995</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>3.499999998330507</v>
+        <v>3.5</v>
       </c>
       <c r="F10">
-        <v>0.4999999999885116</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>9999.999995230019</v>
+        <v>10000</v>
       </c>
       <c r="H10">
-        <v>2499.999999942558</v>
+        <v>2500</v>
       </c>
       <c r="I10">
-        <v>2.270101884249698E-10</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>2.755129457909788E-12</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>9.999999999770234</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
